--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail1 Features.xlsx
@@ -4106,7 +4106,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.442537648429094</v>
+        <v>1.417522460714453</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.512457874990166</v>
@@ -4195,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.44962141233835</v>
+        <v>1.426714884160635</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.2368768251374</v>
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.45617460779332</v>
+        <v>1.431657878522581</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.484665786589737</v>
@@ -4373,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.444576506463679</v>
+        <v>1.423362160706825</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.449030962715764</v>
@@ -4462,7 +4462,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439532597731221</v>
+        <v>1.416776842004329</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.537022272687043</v>
@@ -4551,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445321416285241</v>
+        <v>1.419603871800107</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.591976677070594</v>
@@ -4640,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.448227912641723</v>
+        <v>1.421821706894756</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.565049227260906</v>
@@ -4729,7 +4729,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.415924345082407</v>
+        <v>1.390675781311725</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.320024315503435</v>
@@ -4818,7 +4818,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401410082585798</v>
+        <v>1.379671827446997</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.366136519967968</v>
@@ -4907,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.406551534097232</v>
+        <v>1.378949543318298</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.234575066651715</v>
@@ -4996,7 +4996,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.411698458678994</v>
+        <v>1.382116269069444</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.345114910179905</v>
@@ -5085,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430246568805589</v>
+        <v>1.395909888849227</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.135389601623857</v>
@@ -5174,7 +5174,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.437779757788581</v>
+        <v>1.405857607968849</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.239342008619696</v>
@@ -5263,7 +5263,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.438480993294516</v>
+        <v>1.403314895522198</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.306515112345536</v>
@@ -5352,7 +5352,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.440254335101642</v>
+        <v>1.405393549372231</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.099747254785563</v>
@@ -5441,7 +5441,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.448404542182138</v>
+        <v>1.408190167685981</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.100133576935986</v>
@@ -5530,7 +5530,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453144847920561</v>
+        <v>1.406576296149106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.253726508494188</v>
@@ -5619,7 +5619,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.455591967096777</v>
+        <v>1.402670378492382</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.283377977688132</v>
@@ -5708,7 +5708,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457485224988651</v>
+        <v>1.405567237539346</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.205904776399853</v>
@@ -5797,7 +5797,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.448756129240077</v>
+        <v>1.397736076338125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.268912280087422</v>
@@ -5886,7 +5886,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431853201236648</v>
+        <v>1.385417757515222</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.282312887527285</v>
@@ -5975,7 +5975,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.422421748711393</v>
+        <v>1.374869598590747</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.239798533861692</v>
@@ -6064,7 +6064,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452800950543333</v>
+        <v>1.400805812109249</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.276739593272462</v>
@@ -6153,7 +6153,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.454885791149835</v>
+        <v>1.402622603879336</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.302349428485015</v>
@@ -6242,7 +6242,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.447306415071788</v>
+        <v>1.397619624733074</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.281932586271405</v>
@@ -6331,7 +6331,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452286201246551</v>
+        <v>1.400605135001951</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.271431527165754</v>
@@ -6420,7 +6420,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.446274347149607</v>
+        <v>1.393977133644082</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.355688275580987</v>
@@ -6509,7 +6509,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.444304482839458</v>
+        <v>1.393206884151773</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.276383556420244</v>
@@ -6598,7 +6598,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.439524221157461</v>
+        <v>1.392477329124618</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.329376758011084</v>
@@ -6687,7 +6687,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.451028825798796</v>
+        <v>1.398755841462234</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.060348423852985</v>
@@ -6776,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454718993576246</v>
+        <v>1.404730866739829</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.367238187528072</v>
@@ -6865,7 +6865,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.447251968517722</v>
+        <v>1.401616240726409</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.462592516829865</v>
@@ -6954,7 +6954,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460111788265224</v>
+        <v>1.411795318068137</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.206140740033117</v>
@@ -7043,7 +7043,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467250722752036</v>
+        <v>1.419970275012302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.429482309156979</v>
@@ -7132,7 +7132,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451235472546027</v>
+        <v>1.403763096362562</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.426819445279053</v>
@@ -7221,7 +7221,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.468941486492908</v>
+        <v>1.417642689011776</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.338101261098898</v>
@@ -7310,7 +7310,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470652100391287</v>
+        <v>1.418919103014153</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.417300899936426</v>
@@ -7399,7 +7399,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.455932924335233</v>
+        <v>1.399433669907542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.222221333114182</v>
@@ -7488,7 +7488,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.455699266073899</v>
+        <v>1.397650250214712</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.263709418699887</v>
@@ -7577,7 +7577,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456234465273509</v>
+        <v>1.398609091551772</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.278596722113968</v>
@@ -7666,7 +7666,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.4507587189561</v>
+        <v>1.400315963949134</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.3241601003403</v>
@@ -7755,7 +7755,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.452145897181745</v>
+        <v>1.391698680011097</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.34356384262066</v>
@@ -8041,7 +8041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484186896666257</v>
+        <v>1.431970545349173</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.878460695843515</v>
@@ -8130,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491599214018623</v>
+        <v>1.438573270718156</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.644881216035508</v>
@@ -8219,7 +8219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.486391361609572</v>
+        <v>1.432562977654638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856805580164642</v>
@@ -8308,7 +8308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.466793830976738</v>
+        <v>1.423521039453089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.702066771023921</v>
@@ -8397,7 +8397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46418333234107</v>
+        <v>1.416991804227559</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.757668563096934</v>
@@ -8486,7 +8486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.470320096143272</v>
+        <v>1.419849704280327</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.761202233892903</v>
@@ -8575,7 +8575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.47294409933039</v>
+        <v>1.41961174759704</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.915897135124958</v>
@@ -8664,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481120191482411</v>
+        <v>1.428833555945304</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.541018273413501</v>
@@ -8753,7 +8753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.47390422027095</v>
+        <v>1.420771095569557</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.975907486984479</v>
@@ -8842,7 +8842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465067591582633</v>
+        <v>1.415544727807898</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.926995287666038</v>
@@ -8931,7 +8931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456748327579548</v>
+        <v>1.40961405345617</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.888949572040268</v>
@@ -9020,7 +9020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.460817643457836</v>
+        <v>1.414543978360101</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.619419959467215</v>
@@ -9109,7 +9109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466027745133063</v>
+        <v>1.423161740697304</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.828182887753379</v>
@@ -9198,7 +9198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.465360178168397</v>
+        <v>1.42039478241601</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.845712500420394</v>
@@ -9287,7 +9287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465989743868256</v>
+        <v>1.421663226047367</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.761969469412461</v>
@@ -9376,7 +9376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40171214166992</v>
+        <v>1.378412115798533</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.936533781702619</v>
@@ -9465,7 +9465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.390373082707929</v>
+        <v>1.36684130775496</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.970670088704344</v>
@@ -9554,7 +9554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.386592859204094</v>
+        <v>1.362162382258537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.027968787211728</v>
@@ -9643,7 +9643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.395008066810068</v>
+        <v>1.367950739600926</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.987813182993596</v>
@@ -9732,7 +9732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.390669834459385</v>
+        <v>1.36462212287952</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.982347349142844</v>
@@ -9821,7 +9821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.387891801366568</v>
+        <v>1.361735509325844</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.999579815291165</v>
@@ -9910,7 +9910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.383727466895511</v>
+        <v>1.353639648101435</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.011826531556378</v>
@@ -9999,7 +9999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.372350864422355</v>
+        <v>1.341024360023288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.985356231132814</v>
@@ -10088,7 +10088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.3742291114752</v>
+        <v>1.34417732887053</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.024402694852078</v>
@@ -10177,7 +10177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.377162596052236</v>
+        <v>1.344443960917135</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.035773704982584</v>
@@ -10266,7 +10266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.376300229605081</v>
+        <v>1.346176602857132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.003096822890585</v>
@@ -10355,7 +10355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.380076049726706</v>
+        <v>1.347119932782713</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.994679463298957</v>
@@ -10444,7 +10444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.371556774127619</v>
+        <v>1.339540642632228</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.995048014673225</v>
@@ -10533,7 +10533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.365863100559024</v>
+        <v>1.338484540396636</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.975364816438766</v>
@@ -10622,7 +10622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.369355699196203</v>
+        <v>1.340743668792008</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.091020798129887</v>
@@ -10711,7 +10711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.413472503060039</v>
+        <v>1.374094749171511</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.34740061320652</v>
@@ -10800,7 +10800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.412090688656559</v>
+        <v>1.371013190631872</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.384625276468586</v>
@@ -10889,7 +10889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.418536751582169</v>
+        <v>1.374214122040662</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.434432911475571</v>
@@ -10978,7 +10978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.433370167190089</v>
+        <v>1.390028902474374</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.377434280476821</v>
@@ -11067,7 +11067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.429778244034513</v>
+        <v>1.384268492667756</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.376949591363951</v>
@@ -11156,7 +11156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.426358174108587</v>
+        <v>1.382653243819308</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.353762563661265</v>
@@ -11245,7 +11245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420720150177933</v>
+        <v>1.38150972297647</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.277062084028816</v>
@@ -11334,7 +11334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.419537573672938</v>
+        <v>1.376377517153605</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.172465447776322</v>
@@ -11423,7 +11423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.421293915886981</v>
+        <v>1.379045657729357</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.149358343984598</v>
@@ -11512,7 +11512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.42976766466136</v>
+        <v>1.384596090389096</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.187245502503699</v>
@@ -11601,7 +11601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.428328017035397</v>
+        <v>1.384184141513553</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.30820075886554</v>
@@ -11690,7 +11690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.411918128448905</v>
+        <v>1.365309782917578</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.282799588413997</v>
@@ -11976,7 +11976,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.534201522771941</v>
+        <v>1.474167418557022</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.958215290022894</v>
@@ -12065,7 +12065,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543784375155618</v>
+        <v>1.479730625349326</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.720878470221259</v>
@@ -12154,7 +12154,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545842196614612</v>
+        <v>1.488609671514966</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.926391348515374</v>
@@ -12243,7 +12243,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518860015345782</v>
+        <v>1.472981904512582</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.654472019782394</v>
@@ -12332,7 +12332,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516302895513063</v>
+        <v>1.466228019417665</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.752650929498104</v>
@@ -12421,7 +12421,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.515961519414641</v>
+        <v>1.465893419379618</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.904018894991818</v>
@@ -12510,7 +12510,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.516314522323079</v>
+        <v>1.470288443295659</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.842705155995239</v>
@@ -12599,7 +12599,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512988722289158</v>
+        <v>1.471824551776694</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.803204991472913</v>
@@ -12688,7 +12688,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.510467989013998</v>
+        <v>1.470459875583133</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.974950158554819</v>
@@ -12777,7 +12777,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.507154798639117</v>
+        <v>1.469747905866606</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.890233529415354</v>
@@ -12866,7 +12866,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491369174633764</v>
+        <v>1.457423622767057</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.923256486823837</v>
@@ -12955,7 +12955,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492821274723767</v>
+        <v>1.453957336584121</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.607479521949138</v>
@@ -13044,7 +13044,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505628872015277</v>
+        <v>1.467967179549885</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.046578176755411</v>
@@ -13133,7 +13133,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502760815052928</v>
+        <v>1.462679098777909</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.940692591283307</v>
@@ -13222,7 +13222,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.50310282727977</v>
+        <v>1.459163275069186</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.893825656146253</v>
@@ -13311,7 +13311,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.488186447861932</v>
+        <v>1.441918399570723</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.594797587473196</v>
@@ -13400,7 +13400,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490204488008791</v>
+        <v>1.445012384815541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.753627016464552</v>
@@ -13489,7 +13489,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.485452286498272</v>
+        <v>1.433848172881296</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.698458283007214</v>
@@ -13578,7 +13578,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500837466846289</v>
+        <v>1.446752012321186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.750546150775687</v>
@@ -13667,7 +13667,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.49758451074324</v>
+        <v>1.442999313322985</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.733728264572701</v>
@@ -13756,7 +13756,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.490581039473008</v>
+        <v>1.435219251950158</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.713828180775869</v>
@@ -13845,7 +13845,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485783365817588</v>
+        <v>1.423663882121641</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.64734092052838</v>
@@ -13934,7 +13934,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.480706151494937</v>
+        <v>1.418799421068647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.535534903687843</v>
@@ -14023,7 +14023,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.468555262403726</v>
+        <v>1.406073376774348</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.616221329653724</v>
@@ -14112,7 +14112,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.460429498659604</v>
+        <v>1.397433143035033</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.702700845995945</v>
@@ -14201,7 +14201,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48148209587261</v>
+        <v>1.411780185933101</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.630719399301609</v>
@@ -14290,7 +14290,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.484581976436286</v>
+        <v>1.417821236205264</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.67211278562201</v>
@@ -14379,7 +14379,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.47048605640013</v>
+        <v>1.404790663496062</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.592498868864776</v>
@@ -14468,7 +14468,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.472052044283219</v>
+        <v>1.405473408999173</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.461798616324899</v>
@@ -14557,7 +14557,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.487938836125106</v>
+        <v>1.423403735764295</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.290904164795409</v>
@@ -14646,7 +14646,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.484066095790542</v>
+        <v>1.425173196673608</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.450795742774876</v>
@@ -14735,7 +14735,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472539400625094</v>
+        <v>1.419740429831529</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.496077454528917</v>
@@ -14824,7 +14824,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.479892341091388</v>
+        <v>1.428219591742911</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.411690515043408</v>
@@ -14913,7 +14913,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.482593241819085</v>
+        <v>1.42911369012334</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.409343664416445</v>
@@ -15002,7 +15002,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460921600606373</v>
+        <v>1.407262455588937</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.487691699641954</v>
@@ -15091,7 +15091,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.464131911164787</v>
+        <v>1.411907284107055</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.40478847593107</v>
@@ -15180,7 +15180,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.46642919391374</v>
+        <v>1.414753153029591</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.577927208583361</v>
@@ -15269,7 +15269,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.463170872930852</v>
+        <v>1.407552592325122</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.519208143462149</v>
@@ -15358,7 +15358,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.486854225503778</v>
+        <v>1.424604874750329</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.418208833135069</v>
@@ -15447,7 +15447,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.48988037114443</v>
+        <v>1.422753957595221</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.456124972776386</v>
@@ -15536,7 +15536,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479878167669613</v>
+        <v>1.41537206702257</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.659322082018205</v>
@@ -15625,7 +15625,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.489600891785148</v>
+        <v>1.4167757479727</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.528087026861764</v>
@@ -15911,7 +15911,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513696302909392</v>
+        <v>1.471241587217253</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.892313388910717</v>
@@ -16000,7 +16000,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518575522080671</v>
+        <v>1.476551987256102</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.684774480030945</v>
@@ -16089,7 +16089,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522150259534538</v>
+        <v>1.480447664978919</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.885601480933084</v>
@@ -16178,7 +16178,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507323053323036</v>
+        <v>1.471656015556462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.654194210078598</v>
@@ -16267,7 +16267,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501669142145087</v>
+        <v>1.461666037650527</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.937194825014271</v>
@@ -16356,7 +16356,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502669882139277</v>
+        <v>1.461176702667623</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.019491795428729</v>
@@ -16445,7 +16445,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.50658715662492</v>
+        <v>1.459833391061662</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.885279030084292</v>
@@ -16534,7 +16534,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.501803152482478</v>
+        <v>1.459093338217467</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.905297931044802</v>
@@ -16623,7 +16623,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.492772358562561</v>
+        <v>1.445533941398005</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.696723755997471</v>
@@ -16712,7 +16712,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492040109582102</v>
+        <v>1.443530370925969</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.900293173961746</v>
@@ -16801,7 +16801,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477387254400971</v>
+        <v>1.435133950243211</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.89891263930194</v>
@@ -16890,7 +16890,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.495013309878936</v>
+        <v>1.443407631394284</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.562635602253338</v>
@@ -16979,7 +16979,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.494672565521251</v>
+        <v>1.437707316568566</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.936455377641296</v>
@@ -17068,7 +17068,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.496920561263008</v>
+        <v>1.439864257138618</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.942130662363691</v>
@@ -17157,7 +17157,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.513054770943794</v>
+        <v>1.45126032729016</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.576225981284362</v>
@@ -17246,7 +17246,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.499231285412048</v>
+        <v>1.438561199371162</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.599841519067854</v>
@@ -17335,7 +17335,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.500207859380165</v>
+        <v>1.437533911990792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.814781142394774</v>
@@ -17424,7 +17424,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.495573802734236</v>
+        <v>1.429218203268704</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.726129870498852</v>
@@ -17513,7 +17513,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503981265403252</v>
+        <v>1.4297518458491</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.725840431825236</v>
@@ -17602,7 +17602,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.499274279886592</v>
+        <v>1.431318294125467</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.747151373577586</v>
@@ -17691,7 +17691,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.501526986628135</v>
+        <v>1.435231799636733</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.556124330768001</v>
@@ -17780,7 +17780,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.48797656398774</v>
+        <v>1.42100918027307</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.780500837193683</v>
@@ -17869,7 +17869,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.476998726451151</v>
+        <v>1.410074191061615</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.549254284396981</v>
@@ -17958,7 +17958,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.466957977842979</v>
+        <v>1.410449780967175</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.5850772448337</v>
@@ -18047,7 +18047,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.46365862713846</v>
+        <v>1.405806910710651</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.46194539008217</v>
@@ -18136,7 +18136,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.471588812359107</v>
+        <v>1.411519148304826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.505517009566125</v>
@@ -18225,7 +18225,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.47669319440814</v>
+        <v>1.418151647958561</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.67681685887006</v>
@@ -18314,7 +18314,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480098415510837</v>
+        <v>1.423353025376447</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.637528631375367</v>
@@ -18403,7 +18403,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487009806045746</v>
+        <v>1.429398526004964</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.635328628889954</v>
@@ -18492,7 +18492,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490729199580187</v>
+        <v>1.431389528624943</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.353206174495353</v>
@@ -18581,7 +18581,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.48826871478416</v>
+        <v>1.430653519890907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.207424774087064</v>
@@ -18670,7 +18670,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467278847103668</v>
+        <v>1.414700967306805</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.329332956095973</v>
@@ -18759,7 +18759,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.470071539008168</v>
+        <v>1.42009369419416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.2781399706439</v>
@@ -18848,7 +18848,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.478851655150384</v>
+        <v>1.429060533138866</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.331527136478362</v>
@@ -18937,7 +18937,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.466276445335262</v>
+        <v>1.41901377629313</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.273580905865939</v>
@@ -19026,7 +19026,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461545851353834</v>
+        <v>1.415209788810238</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.25053072330503</v>
@@ -19115,7 +19115,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476770982490192</v>
+        <v>1.433813793514748</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.426387340986252</v>
@@ -19204,7 +19204,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.468699680713255</v>
+        <v>1.422042653949761</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.215964616832339</v>
@@ -19293,7 +19293,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.471232963665587</v>
+        <v>1.42402275280885</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.186541760870611</v>
@@ -19382,7 +19382,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.476651334800143</v>
+        <v>1.42692956641288</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.193561588123072</v>
@@ -19471,7 +19471,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472103904758596</v>
+        <v>1.422886716278398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.399905600097561</v>
@@ -19560,7 +19560,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.470690641326254</v>
+        <v>1.413648407406389</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.25090513708854</v>
@@ -19846,7 +19846,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.547716859091492</v>
+        <v>1.503432290965943</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.819158570578672</v>
@@ -19935,7 +19935,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.557870966168548</v>
+        <v>1.513346213361708</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.908434652774217</v>
@@ -20024,7 +20024,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553912843591692</v>
+        <v>1.513958518126382</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.86897135638966</v>
@@ -20113,7 +20113,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529431698547576</v>
+        <v>1.498199607741646</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777887802940124</v>
@@ -20202,7 +20202,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521462686553595</v>
+        <v>1.490881575152694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.899861517795424</v>
@@ -20291,7 +20291,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.518196761426376</v>
+        <v>1.488678464629797</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.003440096742006</v>
@@ -20380,7 +20380,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.521040712759256</v>
+        <v>1.492865210304836</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.005115233654288</v>
@@ -20469,7 +20469,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525402793482008</v>
+        <v>1.495959473364881</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.97481940737499</v>
@@ -20558,7 +20558,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.525294148064395</v>
+        <v>1.492452525372871</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.733271130570347</v>
@@ -20647,7 +20647,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.518385773365639</v>
+        <v>1.484722665037439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.06672221319896</v>
@@ -20736,7 +20736,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.505118483236045</v>
+        <v>1.471342640759291</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.76737575753442</v>
@@ -20825,7 +20825,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504448621505732</v>
+        <v>1.467496608893726</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.452745735908329</v>
@@ -20914,7 +20914,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505859377293207</v>
+        <v>1.466933318432829</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.002520687025424</v>
@@ -21003,7 +21003,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.512885689414264</v>
+        <v>1.475073643661681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.838795251773536</v>
@@ -21092,7 +21092,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526647609201989</v>
+        <v>1.478035324922725</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.389733658254514</v>
@@ -21181,7 +21181,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52284061198396</v>
+        <v>1.475406659002877</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.674308788589873</v>
@@ -21270,7 +21270,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503899017469235</v>
+        <v>1.464231788124935</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.733241497796842</v>
@@ -21359,7 +21359,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.499479829789087</v>
+        <v>1.453474363159481</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.932100337991434</v>
@@ -21448,7 +21448,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.520449817983629</v>
+        <v>1.469385125018503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.79972804757103</v>
@@ -21537,7 +21537,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516673096859402</v>
+        <v>1.468740003043668</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.81213052755706</v>
@@ -21626,7 +21626,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.5096413253716</v>
+        <v>1.463636295119767</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.821200985488782</v>
@@ -21715,7 +21715,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492591194797006</v>
+        <v>1.446453997093705</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.71463289843923</v>
@@ -21804,7 +21804,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479611654938396</v>
+        <v>1.438735083401836</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.819796950858508</v>
@@ -21893,7 +21893,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.469637990859515</v>
+        <v>1.432598615892467</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.52963016771211</v>
@@ -21982,7 +21982,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.472826128505728</v>
+        <v>1.438434149361785</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.710198090158002</v>
@@ -22071,7 +22071,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.475172682576119</v>
+        <v>1.442148644406134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.718592297815295</v>
@@ -22160,7 +22160,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.484135387200296</v>
+        <v>1.453546469351386</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.607940748212393</v>
@@ -22249,7 +22249,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.488189717205453</v>
+        <v>1.458283011065665</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.75877953823251</v>
@@ -22338,7 +22338,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.479057178270118</v>
+        <v>1.447482286430452</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.829353511525158</v>
@@ -22427,7 +22427,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.476926893252847</v>
+        <v>1.448819524031042</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.543884067964229</v>
@@ -22516,7 +22516,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.462103860551241</v>
+        <v>1.438006291384785</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.474613308409373</v>
@@ -22605,7 +22605,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.463644400125291</v>
+        <v>1.436226109223506</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.554691908849802</v>
@@ -22694,7 +22694,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.46215798769995</v>
+        <v>1.441351934135603</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.425411185546049</v>
@@ -22783,7 +22783,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.461970898679672</v>
+        <v>1.439831893256508</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.391089432242511</v>
@@ -22872,7 +22872,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459131845809119</v>
+        <v>1.436011944684818</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.320163217334602</v>
@@ -22961,7 +22961,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.471694494827812</v>
+        <v>1.447144189971346</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.29291474577676</v>
@@ -23050,7 +23050,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.475249895769487</v>
+        <v>1.451359409196722</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.547904744672011</v>
@@ -23139,7 +23139,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.459417904519779</v>
+        <v>1.431000833394903</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.235779325511391</v>
@@ -23228,7 +23228,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.46334144430013</v>
+        <v>1.435509904131975</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.176488280179671</v>
@@ -23317,7 +23317,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469981229546533</v>
+        <v>1.440393536117315</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.194292468243309</v>
@@ -23406,7 +23406,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472050570674202</v>
+        <v>1.442657260502797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.216020466478337</v>
@@ -23495,7 +23495,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.468895925516774</v>
+        <v>1.428374107233148</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.298705627789845</v>
@@ -23781,7 +23781,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.423022750979515</v>
+        <v>1.401560794263879</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.34713723342665</v>
@@ -23870,7 +23870,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.437258066137258</v>
+        <v>1.414724130218547</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.159953855995998</v>
@@ -23959,7 +23959,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.448802141954627</v>
+        <v>1.424273204635007</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.370303769569045</v>
@@ -24048,7 +24048,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.436341995512321</v>
+        <v>1.420370893833848</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.355237642709513</v>
@@ -24137,7 +24137,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.429172861984795</v>
+        <v>1.411236298498127</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.38397611083542</v>
@@ -24226,7 +24226,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.428745239802325</v>
+        <v>1.411248290344841</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.454255566362502</v>
@@ -24315,7 +24315,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.429088145352201</v>
+        <v>1.408160093520798</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.412854249063708</v>
@@ -24404,7 +24404,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.43259817216905</v>
+        <v>1.406425867829272</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.457971245286311</v>
@@ -24493,7 +24493,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.414283244525457</v>
+        <v>1.397332743365254</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.377898740425356</v>
@@ -24582,7 +24582,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.418041320808594</v>
+        <v>1.395567695360166</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.249876762192947</v>
@@ -24671,7 +24671,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.419643669261746</v>
+        <v>1.398226809741872</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.500073966602549</v>
@@ -24760,7 +24760,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.429667712791349</v>
+        <v>1.401387757167173</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.321440660498904</v>
@@ -24849,7 +24849,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.433160700617983</v>
+        <v>1.403958256299919</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.50264011968214</v>
@@ -24938,7 +24938,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.43255189397003</v>
+        <v>1.402374411358888</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.454793224412868</v>
@@ -25027,7 +25027,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.440534645572348</v>
+        <v>1.406747589669995</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.239332168981893</v>
@@ -25116,7 +25116,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.45511946011041</v>
+        <v>1.410873702689355</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.301076835561385</v>
@@ -25205,7 +25205,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.453790883426387</v>
+        <v>1.406294008486228</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.146051650902727</v>
@@ -25294,7 +25294,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.452631498192908</v>
+        <v>1.395427907147588</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.173381998634087</v>
@@ -25383,7 +25383,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.446487971793317</v>
+        <v>1.390505552193508</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.176942773048085</v>
@@ -25472,7 +25472,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446171571985291</v>
+        <v>1.392891084202334</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.160336181085502</v>
@@ -25561,7 +25561,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.424890396254113</v>
+        <v>1.376672660231999</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.162683834523149</v>
@@ -25650,7 +25650,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.404983302853373</v>
+        <v>1.359193050596115</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.185732619228183</v>
@@ -25739,7 +25739,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.405058383481218</v>
+        <v>1.356516487041539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.191092958963714</v>
@@ -25828,7 +25828,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.401636278556445</v>
+        <v>1.35579632889883</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.12300145294284</v>
@@ -25917,7 +25917,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401667382961399</v>
+        <v>1.357799080322074</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.123088413219573</v>
@@ -26006,7 +26006,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.407866282317252</v>
+        <v>1.361721567410766</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.130741973509447</v>
@@ -26095,7 +26095,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.410297873277087</v>
+        <v>1.366685176317766</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.22430071265196</v>
@@ -26184,7 +26184,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410609184057169</v>
+        <v>1.369552866258555</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.13221711721865</v>
@@ -26273,7 +26273,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.409812005773549</v>
+        <v>1.368008745757905</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.173987336673513</v>
@@ -26362,7 +26362,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.417818105547764</v>
+        <v>1.375496887918895</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.975016653664405</v>
@@ -26451,7 +26451,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.419692419341234</v>
+        <v>1.381852044403255</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.326766693675467</v>
@@ -26540,7 +26540,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.414116936096189</v>
+        <v>1.380005125549043</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.414618090882512</v>
@@ -26629,7 +26629,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.424141182456642</v>
+        <v>1.388148811891588</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.092964263066809</v>
@@ -26718,7 +26718,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.428895225458587</v>
+        <v>1.395747154459918</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.297527294219546</v>
@@ -26807,7 +26807,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.405751216553788</v>
+        <v>1.371015622944683</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316450019073023</v>
@@ -26896,7 +26896,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.430088454089575</v>
+        <v>1.393359264367585</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.196803303505779</v>
@@ -26985,7 +26985,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.439882258360166</v>
+        <v>1.403434550213817</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.385084778280744</v>
@@ -27074,7 +27074,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.421395758172138</v>
+        <v>1.382034337567396</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.208408942813018</v>
@@ -27163,7 +27163,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.428679511994567</v>
+        <v>1.386155703128905</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.199817483685143</v>
@@ -27252,7 +27252,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.43866611275162</v>
+        <v>1.392813082025751</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.252175744706281</v>
@@ -27341,7 +27341,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.432380156969826</v>
+        <v>1.391357846321169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.355749060807812</v>
@@ -27430,7 +27430,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.425298923917611</v>
+        <v>1.374584723170835</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.302470467659131</v>
